--- a/test/e2e-generate/sheet-manipulation/out.xlsx
+++ b/test/e2e-generate/sheet-manipulation/out.xlsx
@@ -366,7 +366,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
